--- a/_site/projects/nhl-projections/files/data/projection_output.xlsx
+++ b/_site/projects/nhl-projections/files/data/projection_output.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="12800" yWindow="460" windowWidth="12800" windowHeight="14440" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="12800" yWindow="460" windowWidth="12800" windowHeight="14440" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="variables" sheetId="3" r:id="rId1"/>
@@ -156,7 +156,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="mm/dd/yyyy;@"/>
-    <numFmt numFmtId="167" formatCode="m/d/yyyy;@"/>
+    <numFmt numFmtId="165" formatCode="m/d/yyyy;@"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -214,7 +214,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="167" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -528,7 +528,7 @@
         <v>2</v>
       </c>
       <c r="D2" s="4">
-        <v>42655</v>
+        <v>42662</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -776,8 +776,8 @@
   </sheetPr>
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -807,17 +807,17 @@
         <f>variables!B2</f>
         <v>ANA</v>
       </c>
-      <c r="B2" s="1" t="str">
-        <f>IFERROR(INDEX('raw actual'!$A$1:$AF$179,MATCH(variables!$D$2,'raw actual'!$A$1:$A$179,0),MATCH($A2,'raw actual'!$A$1:$AF$1,0)),"-")</f>
-        <v>-</v>
-      </c>
-      <c r="C2" s="1" t="str">
-        <f>IFERROR(INDEX('raw curr proj'!$A$1:$AF$179,MATCH(variables!$D$2,'raw curr proj'!$A$1:$A$179,0),MATCH($A2,'raw curr proj'!$A$1:$AF$1,0)),"-")</f>
-        <v>-</v>
+      <c r="B2" s="1">
+        <f>IFERROR(INDEX('raw actual'!$A$1:$AF$367,MATCH(variables!$D$2,'raw actual'!$A$1:$A$367,0),MATCH($A2,'raw actual'!$A$1:$AF$1,0)),"-")</f>
+        <v>1</v>
+      </c>
+      <c r="C2" s="1">
+        <f>IFERROR(INDEX('raw curr proj'!$A$1:$AF$367,MATCH(variables!$D$2,'raw curr proj'!$A$1:$A$367,0),MATCH($A2,'raw curr proj'!$A$1:$AF$1,0)),"-")</f>
+        <v>4.32</v>
       </c>
       <c r="D2" s="1" t="str">
-        <f>IFERROR(ABS(C2-B2),"-")</f>
-        <v>-</v>
+        <f>IFERROR(IF(C2&gt;B2,"+","-")&amp;ROUND(ABS(C2-B2),2),"-")</f>
+        <v>+3.32</v>
       </c>
       <c r="E2" s="1">
         <f ca="1">OFFSET('raw curr proj'!$B$1,COUNTA('raw curr proj'!$B:$B)-1,MATCH(output!$A2,'raw curr proj'!$C$1:$AF$1,0))</f>
@@ -833,17 +833,17 @@
         <f>variables!B3</f>
         <v>ARI</v>
       </c>
-      <c r="B3" s="1" t="str">
-        <f>IFERROR(INDEX('raw actual'!$A$1:$AF$179,MATCH(variables!$D$2,'raw actual'!$A$1:$A$179,0),MATCH($A3,'raw actual'!$A$1:$AF$1,0)),"-")</f>
-        <v>-</v>
-      </c>
-      <c r="C3" s="1" t="str">
-        <f>IFERROR(INDEX('raw curr proj'!$A$1:$AF$179,MATCH(variables!$D$2,'raw curr proj'!$A$1:$A$179,0),MATCH($A3,'raw curr proj'!$A$1:$AF$1,0)),"-")</f>
-        <v>-</v>
+      <c r="B3" s="1">
+        <f>IFERROR(INDEX('raw actual'!$A$1:$AF$367,MATCH(variables!$D$2,'raw actual'!$A$1:$A$367,0),MATCH($A3,'raw actual'!$A$1:$AF$1,0)),"-")</f>
+        <v>2</v>
+      </c>
+      <c r="C3" s="1">
+        <f>IFERROR(INDEX('raw curr proj'!$A$1:$AF$367,MATCH(variables!$D$2,'raw curr proj'!$A$1:$A$367,0),MATCH($A3,'raw curr proj'!$A$1:$AF$1,0)),"-")</f>
+        <v>1.67</v>
       </c>
       <c r="D3" s="1" t="str">
-        <f t="shared" ref="D3:D31" si="0">IFERROR(ABS(C3-B3),"-")</f>
-        <v>-</v>
+        <f t="shared" ref="D3:D7" si="0">IFERROR(IF(C3&gt;B3,"+","-")&amp;ROUND(ABS(C3-B3),2),"-")</f>
+        <v>-0.33</v>
       </c>
       <c r="E3" s="1">
         <f ca="1">OFFSET('raw curr proj'!$B$1,COUNTA('raw curr proj'!B:B)-1,MATCH(output!A3,'raw curr proj'!$C$1:$AF$1,0))</f>
@@ -859,17 +859,17 @@
         <f>variables!B4</f>
         <v>BOS</v>
       </c>
-      <c r="B4" s="1" t="str">
-        <f>IFERROR(INDEX('raw actual'!$A$1:$AF$179,MATCH(variables!$D$2,'raw actual'!$A$1:$A$179,0),MATCH($A4,'raw actual'!$A$1:$AF$1,0)),"-")</f>
-        <v>-</v>
-      </c>
-      <c r="C4" s="1" t="str">
-        <f>IFERROR(INDEX('raw curr proj'!$A$1:$AF$179,MATCH(variables!$D$2,'raw curr proj'!$A$1:$A$179,0),MATCH($A4,'raw curr proj'!$A$1:$AF$1,0)),"-")</f>
-        <v>-</v>
+      <c r="B4" s="1">
+        <f>IFERROR(INDEX('raw actual'!$A$1:$AF$367,MATCH(variables!$D$2,'raw actual'!$A$1:$A$367,0),MATCH($A4,'raw actual'!$A$1:$AF$1,0)),"-")</f>
+        <v>4</v>
+      </c>
+      <c r="C4" s="1">
+        <f>IFERROR(INDEX('raw curr proj'!$A$1:$AF$367,MATCH(variables!$D$2,'raw curr proj'!$A$1:$A$367,0),MATCH($A4,'raw curr proj'!$A$1:$AF$1,0)),"-")</f>
+        <v>3.78</v>
       </c>
       <c r="D4" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>-</v>
+        <v>-0.22</v>
       </c>
       <c r="E4" s="1">
         <f ca="1">OFFSET('raw curr proj'!$B$1,COUNTA('raw curr proj'!B:B)-1,MATCH(output!A4,'raw curr proj'!$C$1:$AF$1,0))</f>
@@ -885,17 +885,17 @@
         <f>variables!B5</f>
         <v>BUF</v>
       </c>
-      <c r="B5" s="1" t="str">
-        <f>IFERROR(INDEX('raw actual'!$A$1:$AF$179,MATCH(variables!$D$2,'raw actual'!$A$1:$A$179,0),MATCH($A5,'raw actual'!$A$1:$AF$1,0)),"-")</f>
-        <v>-</v>
-      </c>
-      <c r="C5" s="1" t="str">
-        <f>IFERROR(INDEX('raw curr proj'!$A$1:$AF$179,MATCH(variables!$D$2,'raw curr proj'!$A$1:$A$179,0),MATCH($A5,'raw curr proj'!$A$1:$AF$1,0)),"-")</f>
-        <v>-</v>
+      <c r="B5" s="1">
+        <f>IFERROR(INDEX('raw actual'!$A$1:$AF$367,MATCH(variables!$D$2,'raw actual'!$A$1:$A$367,0),MATCH($A5,'raw actual'!$A$1:$AF$1,0)),"-")</f>
+        <v>3</v>
+      </c>
+      <c r="C5" s="1">
+        <f>IFERROR(INDEX('raw curr proj'!$A$1:$AF$367,MATCH(variables!$D$2,'raw curr proj'!$A$1:$A$367,0),MATCH($A5,'raw curr proj'!$A$1:$AF$1,0)),"-")</f>
+        <v>3.41</v>
       </c>
       <c r="D5" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>-</v>
+        <v>+0.41</v>
       </c>
       <c r="E5" s="1">
         <f ca="1">OFFSET('raw curr proj'!$B$1,COUNTA('raw curr proj'!B:B)-1,MATCH(output!A5,'raw curr proj'!$C$1:$AF$1,0))</f>
@@ -911,17 +911,17 @@
         <f>variables!B6</f>
         <v>CGY</v>
       </c>
-      <c r="B6" s="1" t="str">
-        <f>IFERROR(INDEX('raw actual'!$A$1:$AF$179,MATCH(variables!$D$2,'raw actual'!$A$1:$A$179,0),MATCH($A6,'raw actual'!$A$1:$AF$1,0)),"-")</f>
-        <v>-</v>
-      </c>
-      <c r="C6" s="1" t="str">
-        <f>IFERROR(INDEX('raw curr proj'!$A$1:$AF$179,MATCH(variables!$D$2,'raw curr proj'!$A$1:$A$179,0),MATCH($A6,'raw curr proj'!$A$1:$AF$1,0)),"-")</f>
-        <v>-</v>
+      <c r="B6" s="1">
+        <f>IFERROR(INDEX('raw actual'!$A$1:$AF$367,MATCH(variables!$D$2,'raw actual'!$A$1:$A$367,0),MATCH($A6,'raw actual'!$A$1:$AF$1,0)),"-")</f>
+        <v>3</v>
+      </c>
+      <c r="C6" s="1">
+        <f>IFERROR(INDEX('raw curr proj'!$A$1:$AF$367,MATCH(variables!$D$2,'raw curr proj'!$A$1:$A$367,0),MATCH($A6,'raw curr proj'!$A$1:$AF$1,0)),"-")</f>
+        <v>4.58</v>
       </c>
       <c r="D6" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>-</v>
+        <v>+1.58</v>
       </c>
       <c r="E6" s="1">
         <f ca="1">OFFSET('raw curr proj'!$B$1,COUNTA('raw curr proj'!B:B)-1,MATCH(output!A6,'raw curr proj'!$C$1:$AF$1,0))</f>
@@ -937,17 +937,17 @@
         <f>variables!B7</f>
         <v>CAR</v>
       </c>
-      <c r="B7" s="1" t="str">
-        <f>IFERROR(INDEX('raw actual'!$A$1:$AF$179,MATCH(variables!$D$2,'raw actual'!$A$1:$A$179,0),MATCH($A7,'raw actual'!$A$1:$AF$1,0)),"-")</f>
-        <v>-</v>
-      </c>
-      <c r="C7" s="1" t="str">
-        <f>IFERROR(INDEX('raw curr proj'!$A$1:$AF$179,MATCH(variables!$D$2,'raw curr proj'!$A$1:$A$179,0),MATCH($A7,'raw curr proj'!$A$1:$AF$1,0)),"-")</f>
-        <v>-</v>
+      <c r="B7" s="1">
+        <f>IFERROR(INDEX('raw actual'!$A$1:$AF$367,MATCH(variables!$D$2,'raw actual'!$A$1:$A$367,0),MATCH($A7,'raw actual'!$A$1:$AF$1,0)),"-")</f>
+        <v>2</v>
+      </c>
+      <c r="C7" s="1">
+        <f>IFERROR(INDEX('raw curr proj'!$A$1:$AF$367,MATCH(variables!$D$2,'raw curr proj'!$A$1:$A$367,0),MATCH($A7,'raw curr proj'!$A$1:$AF$1,0)),"-")</f>
+        <v>2.92</v>
       </c>
       <c r="D7" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>-</v>
+        <v>+0.92</v>
       </c>
       <c r="E7" s="1">
         <f ca="1">OFFSET('raw curr proj'!$B$1,COUNTA('raw curr proj'!B:B)-1,MATCH(output!A7,'raw curr proj'!$C$1:$AF$1,0))</f>
@@ -963,17 +963,17 @@
         <f>variables!B8</f>
         <v>CHI</v>
       </c>
-      <c r="B8" s="1" t="str">
-        <f>IFERROR(INDEX('raw actual'!$A$1:$AF$179,MATCH(variables!$D$2,'raw actual'!$A$1:$A$179,0),MATCH($A8,'raw actual'!$A$1:$AF$1,0)),"-")</f>
-        <v>-</v>
-      </c>
-      <c r="C8" s="1" t="str">
-        <f>IFERROR(INDEX('raw curr proj'!$A$1:$AF$179,MATCH(variables!$D$2,'raw curr proj'!$A$1:$A$179,0),MATCH($A8,'raw curr proj'!$A$1:$AF$1,0)),"-")</f>
-        <v>-</v>
+      <c r="B8" s="1">
+        <f>IFERROR(INDEX('raw actual'!$A$1:$AF$367,MATCH(variables!$D$2,'raw actual'!$A$1:$A$367,0),MATCH($A8,'raw actual'!$A$1:$AF$1,0)),"-")</f>
+        <v>4</v>
+      </c>
+      <c r="C8" s="1">
+        <f>IFERROR(INDEX('raw curr proj'!$A$1:$AF$367,MATCH(variables!$D$2,'raw curr proj'!$A$1:$A$367,0),MATCH($A8,'raw curr proj'!$A$1:$AF$1,0)),"-")</f>
+        <v>4.12</v>
       </c>
       <c r="D8" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>-</v>
+        <f t="shared" ref="D8:D31" si="1">IFERROR(IF(C8&gt;B8,"+","-")&amp;ROUND(ABS(C8-B8),2),"-")</f>
+        <v>+0.12</v>
       </c>
       <c r="E8" s="1">
         <f ca="1">OFFSET('raw curr proj'!$B$1,COUNTA('raw curr proj'!B:B)-1,MATCH(output!A8,'raw curr proj'!$C$1:$AF$1,0))</f>
@@ -989,17 +989,17 @@
         <f>variables!B9</f>
         <v>COL</v>
       </c>
-      <c r="B9" s="1" t="str">
-        <f>IFERROR(INDEX('raw actual'!$A$1:$AF$179,MATCH(variables!$D$2,'raw actual'!$A$1:$A$179,0),MATCH($A9,'raw actual'!$A$1:$AF$1,0)),"-")</f>
-        <v>-</v>
-      </c>
-      <c r="C9" s="1" t="str">
-        <f>IFERROR(INDEX('raw curr proj'!$A$1:$AF$179,MATCH(variables!$D$2,'raw curr proj'!$A$1:$A$179,0),MATCH($A9,'raw curr proj'!$A$1:$AF$1,0)),"-")</f>
-        <v>-</v>
+      <c r="B9" s="1">
+        <f>IFERROR(INDEX('raw actual'!$A$1:$AF$367,MATCH(variables!$D$2,'raw actual'!$A$1:$A$367,0),MATCH($A9,'raw actual'!$A$1:$AF$1,0)),"-")</f>
+        <v>4</v>
+      </c>
+      <c r="C9" s="1">
+        <f>IFERROR(INDEX('raw curr proj'!$A$1:$AF$367,MATCH(variables!$D$2,'raw curr proj'!$A$1:$A$367,0),MATCH($A9,'raw curr proj'!$A$1:$AF$1,0)),"-")</f>
+        <v>3.18</v>
       </c>
       <c r="D9" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>-</v>
+        <f t="shared" si="1"/>
+        <v>-0.82</v>
       </c>
       <c r="E9" s="1">
         <f ca="1">OFFSET('raw curr proj'!$B$1,COUNTA('raw curr proj'!B:B)-1,MATCH(output!A9,'raw curr proj'!$C$1:$AF$1,0))</f>
@@ -1015,17 +1015,17 @@
         <f>variables!B10</f>
         <v>CBJ</v>
       </c>
-      <c r="B10" s="1" t="str">
-        <f>IFERROR(INDEX('raw actual'!$A$1:$AF$179,MATCH(variables!$D$2,'raw actual'!$A$1:$A$179,0),MATCH($A10,'raw actual'!$A$1:$AF$1,0)),"-")</f>
-        <v>-</v>
-      </c>
-      <c r="C10" s="1" t="str">
-        <f>IFERROR(INDEX('raw curr proj'!$A$1:$AF$179,MATCH(variables!$D$2,'raw curr proj'!$A$1:$A$179,0),MATCH($A10,'raw curr proj'!$A$1:$AF$1,0)),"-")</f>
-        <v>-</v>
+      <c r="B10" s="1">
+        <f>IFERROR(INDEX('raw actual'!$A$1:$AF$367,MATCH(variables!$D$2,'raw actual'!$A$1:$A$367,0),MATCH($A10,'raw actual'!$A$1:$AF$1,0)),"-")</f>
+        <v>0</v>
+      </c>
+      <c r="C10" s="1">
+        <f>IFERROR(INDEX('raw curr proj'!$A$1:$AF$367,MATCH(variables!$D$2,'raw curr proj'!$A$1:$A$367,0),MATCH($A10,'raw curr proj'!$A$1:$AF$1,0)),"-")</f>
+        <v>1.71</v>
       </c>
       <c r="D10" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>-</v>
+        <f t="shared" si="1"/>
+        <v>+1.71</v>
       </c>
       <c r="E10" s="1">
         <f ca="1">OFFSET('raw curr proj'!$B$1,COUNTA('raw curr proj'!B:B)-1,MATCH(output!A10,'raw curr proj'!$C$1:$AF$1,0))</f>
@@ -1041,17 +1041,17 @@
         <f>variables!B11</f>
         <v>DAL</v>
       </c>
-      <c r="B11" s="1" t="str">
-        <f>IFERROR(INDEX('raw actual'!$A$1:$AF$179,MATCH(variables!$D$2,'raw actual'!$A$1:$A$179,0),MATCH($A11,'raw actual'!$A$1:$AF$1,0)),"-")</f>
-        <v>-</v>
-      </c>
-      <c r="C11" s="1" t="str">
-        <f>IFERROR(INDEX('raw curr proj'!$A$1:$AF$179,MATCH(variables!$D$2,'raw curr proj'!$A$1:$A$179,0),MATCH($A11,'raw curr proj'!$A$1:$AF$1,0)),"-")</f>
-        <v>-</v>
+      <c r="B11" s="1">
+        <f>IFERROR(INDEX('raw actual'!$A$1:$AF$367,MATCH(variables!$D$2,'raw actual'!$A$1:$A$367,0),MATCH($A11,'raw actual'!$A$1:$AF$1,0)),"-")</f>
+        <v>4</v>
+      </c>
+      <c r="C11" s="1">
+        <f>IFERROR(INDEX('raw curr proj'!$A$1:$AF$367,MATCH(variables!$D$2,'raw curr proj'!$A$1:$A$367,0),MATCH($A11,'raw curr proj'!$A$1:$AF$1,0)),"-")</f>
+        <v>3.35</v>
       </c>
       <c r="D11" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>-</v>
+        <f t="shared" si="1"/>
+        <v>-0.65</v>
       </c>
       <c r="E11" s="1">
         <f ca="1">OFFSET('raw curr proj'!$B$1,COUNTA('raw curr proj'!B:B)-1,MATCH(output!A11,'raw curr proj'!$C$1:$AF$1,0))</f>
@@ -1067,17 +1067,17 @@
         <f>variables!B12</f>
         <v>DET</v>
       </c>
-      <c r="B12" s="1" t="str">
-        <f>IFERROR(INDEX('raw actual'!$A$1:$AF$179,MATCH(variables!$D$2,'raw actual'!$A$1:$A$179,0),MATCH($A12,'raw actual'!$A$1:$AF$1,0)),"-")</f>
-        <v>-</v>
-      </c>
-      <c r="C12" s="1" t="str">
-        <f>IFERROR(INDEX('raw curr proj'!$A$1:$AF$179,MATCH(variables!$D$2,'raw curr proj'!$A$1:$A$179,0),MATCH($A12,'raw curr proj'!$A$1:$AF$1,0)),"-")</f>
-        <v>-</v>
+      <c r="B12" s="1">
+        <f>IFERROR(INDEX('raw actual'!$A$1:$AF$367,MATCH(variables!$D$2,'raw actual'!$A$1:$A$367,0),MATCH($A12,'raw actual'!$A$1:$AF$1,0)),"-")</f>
+        <v>4</v>
+      </c>
+      <c r="C12" s="1">
+        <f>IFERROR(INDEX('raw curr proj'!$A$1:$AF$367,MATCH(variables!$D$2,'raw curr proj'!$A$1:$A$367,0),MATCH($A12,'raw curr proj'!$A$1:$AF$1,0)),"-")</f>
+        <v>2.96</v>
       </c>
       <c r="D12" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>-</v>
+        <f t="shared" si="1"/>
+        <v>-1.04</v>
       </c>
       <c r="E12" s="1">
         <f ca="1">OFFSET('raw curr proj'!$B$1,COUNTA('raw curr proj'!B:B)-1,MATCH(output!A12,'raw curr proj'!$C$1:$AF$1,0))</f>
@@ -1093,17 +1093,17 @@
         <f>variables!B13</f>
         <v>EDM</v>
       </c>
-      <c r="B13" s="1" t="str">
-        <f>IFERROR(INDEX('raw actual'!$A$1:$AF$179,MATCH(variables!$D$2,'raw actual'!$A$1:$A$179,0),MATCH($A13,'raw actual'!$A$1:$AF$1,0)),"-")</f>
-        <v>-</v>
-      </c>
-      <c r="C13" s="1" t="str">
-        <f>IFERROR(INDEX('raw curr proj'!$A$1:$AF$179,MATCH(variables!$D$2,'raw curr proj'!$A$1:$A$179,0),MATCH($A13,'raw curr proj'!$A$1:$AF$1,0)),"-")</f>
-        <v>-</v>
+      <c r="B13" s="1">
+        <f>IFERROR(INDEX('raw actual'!$A$1:$AF$367,MATCH(variables!$D$2,'raw actual'!$A$1:$A$367,0),MATCH($A13,'raw actual'!$A$1:$AF$1,0)),"-")</f>
+        <v>6</v>
+      </c>
+      <c r="C13" s="1">
+        <f>IFERROR(INDEX('raw curr proj'!$A$1:$AF$367,MATCH(variables!$D$2,'raw curr proj'!$A$1:$A$367,0),MATCH($A13,'raw curr proj'!$A$1:$AF$1,0)),"-")</f>
+        <v>3.98</v>
       </c>
       <c r="D13" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>-</v>
+        <f t="shared" si="1"/>
+        <v>-2.02</v>
       </c>
       <c r="E13" s="1">
         <f ca="1">OFFSET('raw curr proj'!$B$1,COUNTA('raw curr proj'!B:B)-1,MATCH(output!A13,'raw curr proj'!$C$1:$AF$1,0))</f>
@@ -1119,17 +1119,17 @@
         <f>variables!B14</f>
         <v>FLA</v>
       </c>
-      <c r="B14" s="1" t="str">
-        <f>IFERROR(INDEX('raw actual'!$A$1:$AF$179,MATCH(variables!$D$2,'raw actual'!$A$1:$A$179,0),MATCH($A14,'raw actual'!$A$1:$AF$1,0)),"-")</f>
-        <v>-</v>
-      </c>
-      <c r="C14" s="1" t="str">
-        <f>IFERROR(INDEX('raw curr proj'!$A$1:$AF$179,MATCH(variables!$D$2,'raw curr proj'!$A$1:$A$179,0),MATCH($A14,'raw curr proj'!$A$1:$AF$1,0)),"-")</f>
-        <v>-</v>
+      <c r="B14" s="1">
+        <f>IFERROR(INDEX('raw actual'!$A$1:$AF$367,MATCH(variables!$D$2,'raw actual'!$A$1:$A$367,0),MATCH($A14,'raw actual'!$A$1:$AF$1,0)),"-")</f>
+        <v>5</v>
+      </c>
+      <c r="C14" s="1">
+        <f>IFERROR(INDEX('raw curr proj'!$A$1:$AF$367,MATCH(variables!$D$2,'raw curr proj'!$A$1:$A$367,0),MATCH($A14,'raw curr proj'!$A$1:$AF$1,0)),"-")</f>
+        <v>3.21</v>
       </c>
       <c r="D14" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>-</v>
+        <f t="shared" si="1"/>
+        <v>-1.79</v>
       </c>
       <c r="E14" s="1">
         <f ca="1">OFFSET('raw curr proj'!$B$1,COUNTA('raw curr proj'!B:B)-1,MATCH(output!A14,'raw curr proj'!$C$1:$AF$1,0))</f>
@@ -1145,17 +1145,17 @@
         <f>variables!B15</f>
         <v>LAK</v>
       </c>
-      <c r="B15" s="1" t="str">
-        <f>IFERROR(INDEX('raw actual'!$A$1:$AF$179,MATCH(variables!$D$2,'raw actual'!$A$1:$A$179,0),MATCH($A15,'raw actual'!$A$1:$AF$1,0)),"-")</f>
-        <v>-</v>
-      </c>
-      <c r="C15" s="1" t="str">
-        <f>IFERROR(INDEX('raw curr proj'!$A$1:$AF$179,MATCH(variables!$D$2,'raw curr proj'!$A$1:$A$179,0),MATCH($A15,'raw curr proj'!$A$1:$AF$1,0)),"-")</f>
-        <v>-</v>
+      <c r="B15" s="1">
+        <f>IFERROR(INDEX('raw actual'!$A$1:$AF$367,MATCH(variables!$D$2,'raw actual'!$A$1:$A$367,0),MATCH($A15,'raw actual'!$A$1:$AF$1,0)),"-")</f>
+        <v>0</v>
+      </c>
+      <c r="C15" s="1">
+        <f>IFERROR(INDEX('raw curr proj'!$A$1:$AF$367,MATCH(variables!$D$2,'raw curr proj'!$A$1:$A$367,0),MATCH($A15,'raw curr proj'!$A$1:$AF$1,0)),"-")</f>
+        <v>2.96</v>
       </c>
       <c r="D15" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>-</v>
+        <f t="shared" si="1"/>
+        <v>+2.96</v>
       </c>
       <c r="E15" s="1">
         <f ca="1">OFFSET('raw curr proj'!$B$1,COUNTA('raw curr proj'!B:B)-1,MATCH(output!A15,'raw curr proj'!$C$1:$AF$1,0))</f>
@@ -1171,17 +1171,17 @@
         <f>variables!B16</f>
         <v>MIN</v>
       </c>
-      <c r="B16" s="1" t="str">
-        <f>IFERROR(INDEX('raw actual'!$A$1:$AF$179,MATCH(variables!$D$2,'raw actual'!$A$1:$A$179,0),MATCH($A16,'raw actual'!$A$1:$AF$1,0)),"-")</f>
-        <v>-</v>
-      </c>
-      <c r="C16" s="1" t="str">
-        <f>IFERROR(INDEX('raw curr proj'!$A$1:$AF$179,MATCH(variables!$D$2,'raw curr proj'!$A$1:$A$179,0),MATCH($A16,'raw curr proj'!$A$1:$AF$1,0)),"-")</f>
-        <v>-</v>
+      <c r="B16" s="1">
+        <f>IFERROR(INDEX('raw actual'!$A$1:$AF$367,MATCH(variables!$D$2,'raw actual'!$A$1:$A$367,0),MATCH($A16,'raw actual'!$A$1:$AF$1,0)),"-")</f>
+        <v>4</v>
+      </c>
+      <c r="C16" s="1">
+        <f>IFERROR(INDEX('raw curr proj'!$A$1:$AF$367,MATCH(variables!$D$2,'raw curr proj'!$A$1:$A$367,0),MATCH($A16,'raw curr proj'!$A$1:$AF$1,0)),"-")</f>
+        <v>3.06</v>
       </c>
       <c r="D16" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>-</v>
+        <f t="shared" si="1"/>
+        <v>-0.94</v>
       </c>
       <c r="E16" s="1">
         <f ca="1">OFFSET('raw curr proj'!$B$1,COUNTA('raw curr proj'!B:B)-1,MATCH(output!A16,'raw curr proj'!$C$1:$AF$1,0))</f>
@@ -1197,17 +1197,17 @@
         <f>variables!B17</f>
         <v>MTL</v>
       </c>
-      <c r="B17" s="1" t="str">
-        <f>IFERROR(INDEX('raw actual'!$A$1:$AF$179,MATCH(variables!$D$2,'raw actual'!$A$1:$A$179,0),MATCH($A17,'raw actual'!$A$1:$AF$1,0)),"-")</f>
-        <v>-</v>
-      </c>
-      <c r="C17" s="1" t="str">
-        <f>IFERROR(INDEX('raw curr proj'!$A$1:$AF$179,MATCH(variables!$D$2,'raw curr proj'!$A$1:$A$179,0),MATCH($A17,'raw curr proj'!$A$1:$AF$1,0)),"-")</f>
-        <v>-</v>
+      <c r="B17" s="1">
+        <f>IFERROR(INDEX('raw actual'!$A$1:$AF$367,MATCH(variables!$D$2,'raw actual'!$A$1:$A$367,0),MATCH($A17,'raw actual'!$A$1:$AF$1,0)),"-")</f>
+        <v>5</v>
+      </c>
+      <c r="C17" s="1">
+        <f>IFERROR(INDEX('raw curr proj'!$A$1:$AF$367,MATCH(variables!$D$2,'raw curr proj'!$A$1:$A$367,0),MATCH($A17,'raw curr proj'!$A$1:$AF$1,0)),"-")</f>
+        <v>3.13</v>
       </c>
       <c r="D17" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>-</v>
+        <f t="shared" si="1"/>
+        <v>-1.87</v>
       </c>
       <c r="E17" s="1">
         <f ca="1">OFFSET('raw curr proj'!$B$1,COUNTA('raw curr proj'!B:B)-1,MATCH(output!A17,'raw curr proj'!$C$1:$AF$1,0))</f>
@@ -1223,17 +1223,17 @@
         <f>variables!B18</f>
         <v>NSH</v>
       </c>
-      <c r="B18" s="1" t="str">
-        <f>IFERROR(INDEX('raw actual'!$A$1:$AF$179,MATCH(variables!$D$2,'raw actual'!$A$1:$A$179,0),MATCH($A18,'raw actual'!$A$1:$AF$1,0)),"-")</f>
-        <v>-</v>
-      </c>
-      <c r="C18" s="1" t="str">
-        <f>IFERROR(INDEX('raw curr proj'!$A$1:$AF$179,MATCH(variables!$D$2,'raw curr proj'!$A$1:$A$179,0),MATCH($A18,'raw curr proj'!$A$1:$AF$1,0)),"-")</f>
-        <v>-</v>
+      <c r="B18" s="1">
+        <f>IFERROR(INDEX('raw actual'!$A$1:$AF$367,MATCH(variables!$D$2,'raw actual'!$A$1:$A$367,0),MATCH($A18,'raw actual'!$A$1:$AF$1,0)),"-")</f>
+        <v>2</v>
+      </c>
+      <c r="C18" s="1">
+        <f>IFERROR(INDEX('raw curr proj'!$A$1:$AF$367,MATCH(variables!$D$2,'raw curr proj'!$A$1:$A$367,0),MATCH($A18,'raw curr proj'!$A$1:$AF$1,0)),"-")</f>
+        <v>2.94</v>
       </c>
       <c r="D18" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>-</v>
+        <f t="shared" si="1"/>
+        <v>+0.94</v>
       </c>
       <c r="E18" s="1">
         <f ca="1">OFFSET('raw curr proj'!$B$1,COUNTA('raw curr proj'!B:B)-1,MATCH(output!A18,'raw curr proj'!$C$1:$AF$1,0))</f>
@@ -1249,17 +1249,17 @@
         <f>variables!B19</f>
         <v>NJD</v>
       </c>
-      <c r="B19" s="1" t="str">
-        <f>IFERROR(INDEX('raw actual'!$A$1:$AF$179,MATCH(variables!$D$2,'raw actual'!$A$1:$A$179,0),MATCH($A19,'raw actual'!$A$1:$AF$1,0)),"-")</f>
-        <v>-</v>
-      </c>
-      <c r="C19" s="1" t="str">
-        <f>IFERROR(INDEX('raw curr proj'!$A$1:$AF$179,MATCH(variables!$D$2,'raw curr proj'!$A$1:$A$179,0),MATCH($A19,'raw curr proj'!$A$1:$AF$1,0)),"-")</f>
-        <v>-</v>
+      <c r="B19" s="1">
+        <f>IFERROR(INDEX('raw actual'!$A$1:$AF$367,MATCH(variables!$D$2,'raw actual'!$A$1:$A$367,0),MATCH($A19,'raw actual'!$A$1:$AF$1,0)),"-")</f>
+        <v>3</v>
+      </c>
+      <c r="C19" s="1">
+        <f>IFERROR(INDEX('raw curr proj'!$A$1:$AF$367,MATCH(variables!$D$2,'raw curr proj'!$A$1:$A$367,0),MATCH($A19,'raw curr proj'!$A$1:$AF$1,0)),"-")</f>
+        <v>2.8</v>
       </c>
       <c r="D19" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>-</v>
+        <f t="shared" si="1"/>
+        <v>-0.2</v>
       </c>
       <c r="E19" s="1">
         <f ca="1">OFFSET('raw curr proj'!$B$1,COUNTA('raw curr proj'!B:B)-1,MATCH(output!A19,'raw curr proj'!$C$1:$AF$1,0))</f>
@@ -1275,17 +1275,17 @@
         <f>variables!B20</f>
         <v>NYI</v>
       </c>
-      <c r="B20" s="1" t="str">
-        <f>IFERROR(INDEX('raw actual'!$A$1:$AF$179,MATCH(variables!$D$2,'raw actual'!$A$1:$A$179,0),MATCH($A20,'raw actual'!$A$1:$AF$1,0)),"-")</f>
-        <v>-</v>
-      </c>
-      <c r="C20" s="1" t="str">
-        <f>IFERROR(INDEX('raw curr proj'!$A$1:$AF$179,MATCH(variables!$D$2,'raw curr proj'!$A$1:$A$179,0),MATCH($A20,'raw curr proj'!$A$1:$AF$1,0)),"-")</f>
-        <v>-</v>
+      <c r="B20" s="1">
+        <f>IFERROR(INDEX('raw actual'!$A$1:$AF$367,MATCH(variables!$D$2,'raw actual'!$A$1:$A$367,0),MATCH($A20,'raw actual'!$A$1:$AF$1,0)),"-")</f>
+        <v>2</v>
+      </c>
+      <c r="C20" s="1">
+        <f>IFERROR(INDEX('raw curr proj'!$A$1:$AF$367,MATCH(variables!$D$2,'raw curr proj'!$A$1:$A$367,0),MATCH($A20,'raw curr proj'!$A$1:$AF$1,0)),"-")</f>
+        <v>3.92</v>
       </c>
       <c r="D20" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>-</v>
+        <f t="shared" si="1"/>
+        <v>+1.92</v>
       </c>
       <c r="E20" s="1">
         <f ca="1">OFFSET('raw curr proj'!$B$1,COUNTA('raw curr proj'!B:B)-1,MATCH(output!A20,'raw curr proj'!$C$1:$AF$1,0))</f>
@@ -1301,17 +1301,17 @@
         <f>variables!B21</f>
         <v>NYR</v>
       </c>
-      <c r="B21" s="1" t="str">
-        <f>IFERROR(INDEX('raw actual'!$A$1:$AF$179,MATCH(variables!$D$2,'raw actual'!$A$1:$A$179,0),MATCH($A21,'raw actual'!$A$1:$AF$1,0)),"-")</f>
-        <v>-</v>
-      </c>
-      <c r="C21" s="1" t="str">
-        <f>IFERROR(INDEX('raw curr proj'!$A$1:$AF$179,MATCH(variables!$D$2,'raw curr proj'!$A$1:$A$179,0),MATCH($A21,'raw curr proj'!$A$1:$AF$1,0)),"-")</f>
-        <v>-</v>
+      <c r="B21" s="1">
+        <f>IFERROR(INDEX('raw actual'!$A$1:$AF$367,MATCH(variables!$D$2,'raw actual'!$A$1:$A$367,0),MATCH($A21,'raw actual'!$A$1:$AF$1,0)),"-")</f>
+        <v>4</v>
+      </c>
+      <c r="C21" s="1">
+        <f>IFERROR(INDEX('raw curr proj'!$A$1:$AF$367,MATCH(variables!$D$2,'raw curr proj'!$A$1:$A$367,0),MATCH($A21,'raw curr proj'!$A$1:$AF$1,0)),"-")</f>
+        <v>3.43</v>
       </c>
       <c r="D21" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>-</v>
+        <f t="shared" si="1"/>
+        <v>-0.57</v>
       </c>
       <c r="E21" s="1">
         <f ca="1">OFFSET('raw curr proj'!$B$1,COUNTA('raw curr proj'!B:B)-1,MATCH(output!A21,'raw curr proj'!$C$1:$AF$1,0))</f>
@@ -1327,17 +1327,17 @@
         <f>variables!B22</f>
         <v>OTT</v>
       </c>
-      <c r="B22" s="1" t="str">
-        <f>IFERROR(INDEX('raw actual'!$A$1:$AF$179,MATCH(variables!$D$2,'raw actual'!$A$1:$A$179,0),MATCH($A22,'raw actual'!$A$1:$AF$1,0)),"-")</f>
-        <v>-</v>
-      </c>
-      <c r="C22" s="1" t="str">
-        <f>IFERROR(INDEX('raw curr proj'!$A$1:$AF$179,MATCH(variables!$D$2,'raw curr proj'!$A$1:$A$179,0),MATCH($A22,'raw curr proj'!$A$1:$AF$1,0)),"-")</f>
-        <v>-</v>
+      <c r="B22" s="1">
+        <f>IFERROR(INDEX('raw actual'!$A$1:$AF$367,MATCH(variables!$D$2,'raw actual'!$A$1:$A$367,0),MATCH($A22,'raw actual'!$A$1:$AF$1,0)),"-")</f>
+        <v>6</v>
+      </c>
+      <c r="C22" s="1">
+        <f>IFERROR(INDEX('raw curr proj'!$A$1:$AF$367,MATCH(variables!$D$2,'raw curr proj'!$A$1:$A$367,0),MATCH($A22,'raw curr proj'!$A$1:$AF$1,0)),"-")</f>
+        <v>4.37</v>
       </c>
       <c r="D22" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>-</v>
+        <f t="shared" si="1"/>
+        <v>-1.63</v>
       </c>
       <c r="E22" s="1">
         <f ca="1">OFFSET('raw curr proj'!$B$1,COUNTA('raw curr proj'!B:B)-1,MATCH(output!A22,'raw curr proj'!$C$1:$AF$1,0))</f>
@@ -1353,17 +1353,17 @@
         <f>variables!B23</f>
         <v>PHI</v>
       </c>
-      <c r="B23" s="1" t="str">
-        <f>IFERROR(INDEX('raw actual'!$A$1:$AF$179,MATCH(variables!$D$2,'raw actual'!$A$1:$A$179,0),MATCH($A23,'raw actual'!$A$1:$AF$1,0)),"-")</f>
-        <v>-</v>
-      </c>
-      <c r="C23" s="1" t="str">
-        <f>IFERROR(INDEX('raw curr proj'!$A$1:$AF$179,MATCH(variables!$D$2,'raw curr proj'!$A$1:$A$179,0),MATCH($A23,'raw curr proj'!$A$1:$AF$1,0)),"-")</f>
-        <v>-</v>
+      <c r="B23" s="1">
+        <f>IFERROR(INDEX('raw actual'!$A$1:$AF$367,MATCH(variables!$D$2,'raw actual'!$A$1:$A$367,0),MATCH($A23,'raw actual'!$A$1:$AF$1,0)),"-")</f>
+        <v>3</v>
+      </c>
+      <c r="C23" s="1">
+        <f>IFERROR(INDEX('raw curr proj'!$A$1:$AF$367,MATCH(variables!$D$2,'raw curr proj'!$A$1:$A$367,0),MATCH($A23,'raw curr proj'!$A$1:$AF$1,0)),"-")</f>
+        <v>3.66</v>
       </c>
       <c r="D23" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>-</v>
+        <f t="shared" si="1"/>
+        <v>+0.66</v>
       </c>
       <c r="E23" s="1">
         <f ca="1">OFFSET('raw curr proj'!$B$1,COUNTA('raw curr proj'!B:B)-1,MATCH(output!A23,'raw curr proj'!$C$1:$AF$1,0))</f>
@@ -1379,17 +1379,17 @@
         <f>variables!B24</f>
         <v>PIT</v>
       </c>
-      <c r="B24" s="1" t="str">
-        <f>IFERROR(INDEX('raw actual'!$A$1:$AF$179,MATCH(variables!$D$2,'raw actual'!$A$1:$A$179,0),MATCH($A24,'raw actual'!$A$1:$AF$1,0)),"-")</f>
-        <v>-</v>
-      </c>
-      <c r="C24" s="1" t="str">
-        <f>IFERROR(INDEX('raw curr proj'!$A$1:$AF$179,MATCH(variables!$D$2,'raw curr proj'!$A$1:$A$179,0),MATCH($A24,'raw curr proj'!$A$1:$AF$1,0)),"-")</f>
-        <v>-</v>
+      <c r="B24" s="1">
+        <f>IFERROR(INDEX('raw actual'!$A$1:$AF$367,MATCH(variables!$D$2,'raw actual'!$A$1:$A$367,0),MATCH($A24,'raw actual'!$A$1:$AF$1,0)),"-")</f>
+        <v>5</v>
+      </c>
+      <c r="C24" s="1">
+        <f>IFERROR(INDEX('raw curr proj'!$A$1:$AF$367,MATCH(variables!$D$2,'raw curr proj'!$A$1:$A$367,0),MATCH($A24,'raw curr proj'!$A$1:$AF$1,0)),"-")</f>
+        <v>4.68</v>
       </c>
       <c r="D24" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>-</v>
+        <f t="shared" si="1"/>
+        <v>-0.32</v>
       </c>
       <c r="E24" s="1">
         <f ca="1">OFFSET('raw curr proj'!$B$1,COUNTA('raw curr proj'!B:B)-1,MATCH(output!A24,'raw curr proj'!$C$1:$AF$1,0))</f>
@@ -1405,17 +1405,17 @@
         <f>variables!B25</f>
         <v>SJS</v>
       </c>
-      <c r="B25" s="1" t="str">
-        <f>IFERROR(INDEX('raw actual'!$A$1:$AF$179,MATCH(variables!$D$2,'raw actual'!$A$1:$A$179,0),MATCH($A25,'raw actual'!$A$1:$AF$1,0)),"-")</f>
-        <v>-</v>
-      </c>
-      <c r="C25" s="1" t="str">
-        <f>IFERROR(INDEX('raw curr proj'!$A$1:$AF$179,MATCH(variables!$D$2,'raw curr proj'!$A$1:$A$179,0),MATCH($A25,'raw curr proj'!$A$1:$AF$1,0)),"-")</f>
-        <v>-</v>
+      <c r="B25" s="1">
+        <f>IFERROR(INDEX('raw actual'!$A$1:$AF$367,MATCH(variables!$D$2,'raw actual'!$A$1:$A$367,0),MATCH($A25,'raw actual'!$A$1:$AF$1,0)),"-")</f>
+        <v>6</v>
+      </c>
+      <c r="C25" s="1">
+        <f>IFERROR(INDEX('raw curr proj'!$A$1:$AF$367,MATCH(variables!$D$2,'raw curr proj'!$A$1:$A$367,0),MATCH($A25,'raw curr proj'!$A$1:$AF$1,0)),"-")</f>
+        <v>4.4000000000000004</v>
       </c>
       <c r="D25" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>-</v>
+        <f t="shared" si="1"/>
+        <v>-1.6</v>
       </c>
       <c r="E25" s="1">
         <f ca="1">OFFSET('raw curr proj'!$B$1,COUNTA('raw curr proj'!B:B)-1,MATCH(output!A25,'raw curr proj'!$C$1:$AF$1,0))</f>
@@ -1431,17 +1431,17 @@
         <f>variables!B26</f>
         <v>STL</v>
       </c>
-      <c r="B26" s="1" t="str">
-        <f>IFERROR(INDEX('raw actual'!$A$1:$AF$179,MATCH(variables!$D$2,'raw actual'!$A$1:$A$179,0),MATCH($A26,'raw actual'!$A$1:$AF$1,0)),"-")</f>
-        <v>-</v>
-      </c>
-      <c r="C26" s="1" t="str">
-        <f>IFERROR(INDEX('raw curr proj'!$A$1:$AF$179,MATCH(variables!$D$2,'raw curr proj'!$A$1:$A$179,0),MATCH($A26,'raw curr proj'!$A$1:$AF$1,0)),"-")</f>
-        <v>-</v>
+      <c r="B26" s="1">
+        <f>IFERROR(INDEX('raw actual'!$A$1:$AF$367,MATCH(variables!$D$2,'raw actual'!$A$1:$A$367,0),MATCH($A26,'raw actual'!$A$1:$AF$1,0)),"-")</f>
+        <v>7</v>
+      </c>
+      <c r="C26" s="1">
+        <f>IFERROR(INDEX('raw curr proj'!$A$1:$AF$367,MATCH(variables!$D$2,'raw curr proj'!$A$1:$A$367,0),MATCH($A26,'raw curr proj'!$A$1:$AF$1,0)),"-")</f>
+        <v>4.78</v>
       </c>
       <c r="D26" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>-</v>
+        <f t="shared" si="1"/>
+        <v>-2.22</v>
       </c>
       <c r="E26" s="1">
         <f ca="1">OFFSET('raw curr proj'!$B$1,COUNTA('raw curr proj'!B:B)-1,MATCH(output!A26,'raw curr proj'!$C$1:$AF$1,0))</f>
@@ -1457,17 +1457,17 @@
         <f>variables!B27</f>
         <v>TBL</v>
       </c>
-      <c r="B27" s="1" t="str">
-        <f>IFERROR(INDEX('raw actual'!$A$1:$AF$179,MATCH(variables!$D$2,'raw actual'!$A$1:$A$179,0),MATCH($A27,'raw actual'!$A$1:$AF$1,0)),"-")</f>
-        <v>-</v>
-      </c>
-      <c r="C27" s="1" t="str">
-        <f>IFERROR(INDEX('raw curr proj'!$A$1:$AF$179,MATCH(variables!$D$2,'raw curr proj'!$A$1:$A$179,0),MATCH($A27,'raw curr proj'!$A$1:$AF$1,0)),"-")</f>
-        <v>-</v>
+      <c r="B27" s="1">
+        <f>IFERROR(INDEX('raw actual'!$A$1:$AF$367,MATCH(variables!$D$2,'raw actual'!$A$1:$A$367,0),MATCH($A27,'raw actual'!$A$1:$AF$1,0)),"-")</f>
+        <v>6</v>
+      </c>
+      <c r="C27" s="1">
+        <f>IFERROR(INDEX('raw curr proj'!$A$1:$AF$367,MATCH(variables!$D$2,'raw curr proj'!$A$1:$A$367,0),MATCH($A27,'raw curr proj'!$A$1:$AF$1,0)),"-")</f>
+        <v>3.54</v>
       </c>
       <c r="D27" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>-</v>
+        <f t="shared" si="1"/>
+        <v>-2.46</v>
       </c>
       <c r="E27" s="1">
         <f ca="1">OFFSET('raw curr proj'!$B$1,COUNTA('raw curr proj'!B:B)-1,MATCH(output!A27,'raw curr proj'!$C$1:$AF$1,0))</f>
@@ -1483,17 +1483,17 @@
         <f>variables!B28</f>
         <v>TOR</v>
       </c>
-      <c r="B28" s="1" t="str">
-        <f>IFERROR(INDEX('raw actual'!$A$1:$AF$179,MATCH(variables!$D$2,'raw actual'!$A$1:$A$179,0),MATCH($A28,'raw actual'!$A$1:$AF$1,0)),"-")</f>
-        <v>-</v>
-      </c>
-      <c r="C28" s="1" t="str">
-        <f>IFERROR(INDEX('raw curr proj'!$A$1:$AF$179,MATCH(variables!$D$2,'raw curr proj'!$A$1:$A$179,0),MATCH($A28,'raw curr proj'!$A$1:$AF$1,0)),"-")</f>
-        <v>-</v>
+      <c r="B28" s="1">
+        <f>IFERROR(INDEX('raw actual'!$A$1:$AF$367,MATCH(variables!$D$2,'raw actual'!$A$1:$A$367,0),MATCH($A28,'raw actual'!$A$1:$AF$1,0)),"-")</f>
+        <v>4</v>
+      </c>
+      <c r="C28" s="1">
+        <f>IFERROR(INDEX('raw curr proj'!$A$1:$AF$367,MATCH(variables!$D$2,'raw curr proj'!$A$1:$A$367,0),MATCH($A28,'raw curr proj'!$A$1:$AF$1,0)),"-")</f>
+        <v>1.89</v>
       </c>
       <c r="D28" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>-</v>
+        <f t="shared" si="1"/>
+        <v>-2.11</v>
       </c>
       <c r="E28" s="1">
         <f ca="1">OFFSET('raw curr proj'!$B$1,COUNTA('raw curr proj'!B:B)-1,MATCH(output!A28,'raw curr proj'!$C$1:$AF$1,0))</f>
@@ -1509,17 +1509,17 @@
         <f>variables!B29</f>
         <v>VAN</v>
       </c>
-      <c r="B29" s="1" t="str">
-        <f>IFERROR(INDEX('raw actual'!$A$1:$AF$179,MATCH(variables!$D$2,'raw actual'!$A$1:$A$179,0),MATCH($A29,'raw actual'!$A$1:$AF$1,0)),"-")</f>
-        <v>-</v>
-      </c>
-      <c r="C29" s="1" t="str">
-        <f>IFERROR(INDEX('raw curr proj'!$A$1:$AF$179,MATCH(variables!$D$2,'raw curr proj'!$A$1:$A$179,0),MATCH($A29,'raw curr proj'!$A$1:$AF$1,0)),"-")</f>
-        <v>-</v>
+      <c r="B29" s="1">
+        <f>IFERROR(INDEX('raw actual'!$A$1:$AF$367,MATCH(variables!$D$2,'raw actual'!$A$1:$A$367,0),MATCH($A29,'raw actual'!$A$1:$AF$1,0)),"-")</f>
+        <v>6</v>
+      </c>
+      <c r="C29" s="1">
+        <f>IFERROR(INDEX('raw curr proj'!$A$1:$AF$367,MATCH(variables!$D$2,'raw curr proj'!$A$1:$A$367,0),MATCH($A29,'raw curr proj'!$A$1:$AF$1,0)),"-")</f>
+        <v>2.82</v>
       </c>
       <c r="D29" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>-</v>
+        <f t="shared" si="1"/>
+        <v>-3.18</v>
       </c>
       <c r="E29" s="1">
         <f ca="1">OFFSET('raw curr proj'!$B$1,COUNTA('raw curr proj'!B:B)-1,MATCH(output!A29,'raw curr proj'!$C$1:$AF$1,0))</f>
@@ -1535,17 +1535,17 @@
         <f>variables!B30</f>
         <v>WSH</v>
       </c>
-      <c r="B30" s="1" t="str">
-        <f>IFERROR(INDEX('raw actual'!$A$1:$AF$179,MATCH(variables!$D$2,'raw actual'!$A$1:$A$179,0),MATCH($A30,'raw actual'!$A$1:$AF$1,0)),"-")</f>
-        <v>-</v>
-      </c>
-      <c r="C30" s="1" t="str">
-        <f>IFERROR(INDEX('raw curr proj'!$A$1:$AF$179,MATCH(variables!$D$2,'raw curr proj'!$A$1:$A$179,0),MATCH($A30,'raw curr proj'!$A$1:$AF$1,0)),"-")</f>
-        <v>-</v>
+      <c r="B30" s="1">
+        <f>IFERROR(INDEX('raw actual'!$A$1:$AF$367,MATCH(variables!$D$2,'raw actual'!$A$1:$A$367,0),MATCH($A30,'raw actual'!$A$1:$AF$1,0)),"-")</f>
+        <v>5</v>
+      </c>
+      <c r="C30" s="1">
+        <f>IFERROR(INDEX('raw curr proj'!$A$1:$AF$367,MATCH(variables!$D$2,'raw curr proj'!$A$1:$A$367,0),MATCH($A30,'raw curr proj'!$A$1:$AF$1,0)),"-")</f>
+        <v>3</v>
       </c>
       <c r="D30" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>-</v>
+        <f t="shared" si="1"/>
+        <v>-2</v>
       </c>
       <c r="E30" s="1">
         <f ca="1">OFFSET('raw curr proj'!$B$1,COUNTA('raw curr proj'!B:B)-1,MATCH(output!A30,'raw curr proj'!$C$1:$AF$1,0))</f>
@@ -1561,17 +1561,17 @@
         <f>variables!B31</f>
         <v>WPG</v>
       </c>
-      <c r="B31" s="1" t="str">
-        <f>IFERROR(INDEX('raw actual'!$A$1:$AF$179,MATCH(variables!$D$2,'raw actual'!$A$1:$A$179,0),MATCH($A31,'raw actual'!$A$1:$AF$1,0)),"-")</f>
-        <v>-</v>
-      </c>
-      <c r="C31" s="1" t="str">
-        <f>IFERROR(INDEX('raw curr proj'!$A$1:$AF$179,MATCH(variables!$D$2,'raw curr proj'!$A$1:$A$179,0),MATCH($A31,'raw curr proj'!$A$1:$AF$1,0)),"-")</f>
-        <v>-</v>
+      <c r="B31" s="1">
+        <f>IFERROR(INDEX('raw actual'!$A$1:$AF$367,MATCH(variables!$D$2,'raw actual'!$A$1:$A$367,0),MATCH($A31,'raw actual'!$A$1:$AF$1,0)),"-")</f>
+        <v>4</v>
+      </c>
+      <c r="C31" s="1">
+        <f>IFERROR(INDEX('raw curr proj'!$A$1:$AF$367,MATCH(variables!$D$2,'raw curr proj'!$A$1:$A$367,0),MATCH($A31,'raw curr proj'!$A$1:$AF$1,0)),"-")</f>
+        <v>3.24</v>
       </c>
       <c r="D31" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>-</v>
+        <f t="shared" si="1"/>
+        <v>-0.76</v>
       </c>
       <c r="E31" s="1">
         <f ca="1">OFFSET('raw curr proj'!$B$1,COUNTA('raw curr proj'!B:B)-1,MATCH(output!A31,'raw curr proj'!$C$1:$AF$1,0))</f>
@@ -1594,11 +1594,11 @@
   </sheetPr>
   <dimension ref="A1:AE367"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B182" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B191" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AE199" sqref="AE199"/>
+      <selection pane="bottomRight" activeCell="AF202" sqref="AF202"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2795,6 +2795,96 @@
     <row r="202" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A202" s="6">
         <v>42662</v>
+      </c>
+      <c r="B202" s="1">
+        <v>1</v>
+      </c>
+      <c r="C202" s="1">
+        <v>2</v>
+      </c>
+      <c r="D202" s="1">
+        <v>4</v>
+      </c>
+      <c r="E202" s="1">
+        <v>3</v>
+      </c>
+      <c r="F202" s="1">
+        <v>3</v>
+      </c>
+      <c r="G202" s="1">
+        <v>2</v>
+      </c>
+      <c r="H202" s="1">
+        <v>4</v>
+      </c>
+      <c r="I202" s="1">
+        <v>4</v>
+      </c>
+      <c r="J202" s="1">
+        <v>0</v>
+      </c>
+      <c r="K202" s="1">
+        <v>4</v>
+      </c>
+      <c r="L202" s="1">
+        <v>4</v>
+      </c>
+      <c r="M202" s="1">
+        <v>6</v>
+      </c>
+      <c r="N202" s="1">
+        <v>5</v>
+      </c>
+      <c r="O202" s="1">
+        <v>0</v>
+      </c>
+      <c r="P202" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q202" s="1">
+        <v>5</v>
+      </c>
+      <c r="R202" s="1">
+        <v>2</v>
+      </c>
+      <c r="S202" s="1">
+        <v>3</v>
+      </c>
+      <c r="T202" s="1">
+        <v>2</v>
+      </c>
+      <c r="U202" s="1">
+        <v>4</v>
+      </c>
+      <c r="V202" s="1">
+        <v>6</v>
+      </c>
+      <c r="W202" s="1">
+        <v>3</v>
+      </c>
+      <c r="X202" s="1">
+        <v>5</v>
+      </c>
+      <c r="Y202" s="1">
+        <v>6</v>
+      </c>
+      <c r="Z202" s="1">
+        <v>7</v>
+      </c>
+      <c r="AA202" s="1">
+        <v>6</v>
+      </c>
+      <c r="AB202" s="1">
+        <v>4</v>
+      </c>
+      <c r="AC202" s="1">
+        <v>6</v>
+      </c>
+      <c r="AD202" s="1">
+        <v>5</v>
+      </c>
+      <c r="AE202" s="1">
+        <v>4</v>
       </c>
     </row>
     <row r="203" spans="1:31" x14ac:dyDescent="0.2">

--- a/_site/projects/nhl-projections/files/data/projection_output.xlsx
+++ b/_site/projects/nhl-projections/files/data/projection_output.xlsx
@@ -528,7 +528,7 @@
         <v>2</v>
       </c>
       <c r="D2" s="4">
-        <v>42662</v>
+        <v>42787</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -777,7 +777,7 @@
   <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -809,15 +809,15 @@
       </c>
       <c r="B2" s="1">
         <f>IFERROR(INDEX('raw actual'!$A$1:$AF$367,MATCH(variables!$D$2,'raw actual'!$A$1:$A$367,0),MATCH($A2,'raw actual'!$A$1:$AF$1,0)),"-")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" s="1">
         <f>IFERROR(INDEX('raw curr proj'!$A$1:$AF$367,MATCH(variables!$D$2,'raw curr proj'!$A$1:$A$367,0),MATCH($A2,'raw curr proj'!$A$1:$AF$1,0)),"-")</f>
-        <v>4.32</v>
+        <v>66.930000000000007</v>
       </c>
       <c r="D2" s="1" t="str">
         <f>IFERROR(IF(C2&gt;B2,"+","-")&amp;ROUND(ABS(C2-B2),2),"-")</f>
-        <v>+3.32</v>
+        <v>+66.93</v>
       </c>
       <c r="E2" s="1">
         <f ca="1">OFFSET('raw curr proj'!$B$1,COUNTA('raw curr proj'!$B:$B)-1,MATCH(output!$A2,'raw curr proj'!$C$1:$AF$1,0))</f>
@@ -835,15 +835,15 @@
       </c>
       <c r="B3" s="1">
         <f>IFERROR(INDEX('raw actual'!$A$1:$AF$367,MATCH(variables!$D$2,'raw actual'!$A$1:$A$367,0),MATCH($A3,'raw actual'!$A$1:$AF$1,0)),"-")</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C3" s="1">
         <f>IFERROR(INDEX('raw curr proj'!$A$1:$AF$367,MATCH(variables!$D$2,'raw curr proj'!$A$1:$A$367,0),MATCH($A3,'raw curr proj'!$A$1:$AF$1,0)),"-")</f>
-        <v>1.67</v>
+        <v>60.28</v>
       </c>
       <c r="D3" s="1" t="str">
         <f t="shared" ref="D3:D7" si="0">IFERROR(IF(C3&gt;B3,"+","-")&amp;ROUND(ABS(C3-B3),2),"-")</f>
-        <v>-0.33</v>
+        <v>+60.28</v>
       </c>
       <c r="E3" s="1">
         <f ca="1">OFFSET('raw curr proj'!$B$1,COUNTA('raw curr proj'!B:B)-1,MATCH(output!A3,'raw curr proj'!$C$1:$AF$1,0))</f>
@@ -861,15 +861,15 @@
       </c>
       <c r="B4" s="1">
         <f>IFERROR(INDEX('raw actual'!$A$1:$AF$367,MATCH(variables!$D$2,'raw actual'!$A$1:$A$367,0),MATCH($A4,'raw actual'!$A$1:$AF$1,0)),"-")</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C4" s="1">
         <f>IFERROR(INDEX('raw curr proj'!$A$1:$AF$367,MATCH(variables!$D$2,'raw curr proj'!$A$1:$A$367,0),MATCH($A4,'raw curr proj'!$A$1:$AF$1,0)),"-")</f>
-        <v>3.78</v>
+        <v>66.400000000000006</v>
       </c>
       <c r="D4" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>-0.22</v>
+        <v>+66.4</v>
       </c>
       <c r="E4" s="1">
         <f ca="1">OFFSET('raw curr proj'!$B$1,COUNTA('raw curr proj'!B:B)-1,MATCH(output!A4,'raw curr proj'!$C$1:$AF$1,0))</f>
@@ -887,15 +887,15 @@
       </c>
       <c r="B5" s="1">
         <f>IFERROR(INDEX('raw actual'!$A$1:$AF$367,MATCH(variables!$D$2,'raw actual'!$A$1:$A$367,0),MATCH($A5,'raw actual'!$A$1:$AF$1,0)),"-")</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C5" s="1">
         <f>IFERROR(INDEX('raw curr proj'!$A$1:$AF$367,MATCH(variables!$D$2,'raw curr proj'!$A$1:$A$367,0),MATCH($A5,'raw curr proj'!$A$1:$AF$1,0)),"-")</f>
-        <v>3.41</v>
+        <v>58.42</v>
       </c>
       <c r="D5" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>+0.41</v>
+        <v>+58.42</v>
       </c>
       <c r="E5" s="1">
         <f ca="1">OFFSET('raw curr proj'!$B$1,COUNTA('raw curr proj'!B:B)-1,MATCH(output!A5,'raw curr proj'!$C$1:$AF$1,0))</f>
@@ -913,15 +913,15 @@
       </c>
       <c r="B6" s="1">
         <f>IFERROR(INDEX('raw actual'!$A$1:$AF$367,MATCH(variables!$D$2,'raw actual'!$A$1:$A$367,0),MATCH($A6,'raw actual'!$A$1:$AF$1,0)),"-")</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C6" s="1">
         <f>IFERROR(INDEX('raw curr proj'!$A$1:$AF$367,MATCH(variables!$D$2,'raw curr proj'!$A$1:$A$367,0),MATCH($A6,'raw curr proj'!$A$1:$AF$1,0)),"-")</f>
-        <v>4.58</v>
+        <v>62.04</v>
       </c>
       <c r="D6" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>+1.58</v>
+        <v>+62.04</v>
       </c>
       <c r="E6" s="1">
         <f ca="1">OFFSET('raw curr proj'!$B$1,COUNTA('raw curr proj'!B:B)-1,MATCH(output!A6,'raw curr proj'!$C$1:$AF$1,0))</f>
@@ -939,15 +939,15 @@
       </c>
       <c r="B7" s="1">
         <f>IFERROR(INDEX('raw actual'!$A$1:$AF$367,MATCH(variables!$D$2,'raw actual'!$A$1:$A$367,0),MATCH($A7,'raw actual'!$A$1:$AF$1,0)),"-")</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C7" s="1">
         <f>IFERROR(INDEX('raw curr proj'!$A$1:$AF$367,MATCH(variables!$D$2,'raw curr proj'!$A$1:$A$367,0),MATCH($A7,'raw curr proj'!$A$1:$AF$1,0)),"-")</f>
-        <v>2.92</v>
+        <v>52.22</v>
       </c>
       <c r="D7" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>+0.92</v>
+        <v>+52.22</v>
       </c>
       <c r="E7" s="1">
         <f ca="1">OFFSET('raw curr proj'!$B$1,COUNTA('raw curr proj'!B:B)-1,MATCH(output!A7,'raw curr proj'!$C$1:$AF$1,0))</f>
@@ -965,15 +965,15 @@
       </c>
       <c r="B8" s="1">
         <f>IFERROR(INDEX('raw actual'!$A$1:$AF$367,MATCH(variables!$D$2,'raw actual'!$A$1:$A$367,0),MATCH($A8,'raw actual'!$A$1:$AF$1,0)),"-")</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C8" s="1">
         <f>IFERROR(INDEX('raw curr proj'!$A$1:$AF$367,MATCH(variables!$D$2,'raw curr proj'!$A$1:$A$367,0),MATCH($A8,'raw curr proj'!$A$1:$AF$1,0)),"-")</f>
-        <v>4.12</v>
+        <v>68.38</v>
       </c>
       <c r="D8" s="1" t="str">
         <f t="shared" ref="D8:D31" si="1">IFERROR(IF(C8&gt;B8,"+","-")&amp;ROUND(ABS(C8-B8),2),"-")</f>
-        <v>+0.12</v>
+        <v>+68.38</v>
       </c>
       <c r="E8" s="1">
         <f ca="1">OFFSET('raw curr proj'!$B$1,COUNTA('raw curr proj'!B:B)-1,MATCH(output!A8,'raw curr proj'!$C$1:$AF$1,0))</f>
@@ -991,15 +991,15 @@
       </c>
       <c r="B9" s="1">
         <f>IFERROR(INDEX('raw actual'!$A$1:$AF$367,MATCH(variables!$D$2,'raw actual'!$A$1:$A$367,0),MATCH($A9,'raw actual'!$A$1:$AF$1,0)),"-")</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C9" s="1">
         <f>IFERROR(INDEX('raw curr proj'!$A$1:$AF$367,MATCH(variables!$D$2,'raw curr proj'!$A$1:$A$367,0),MATCH($A9,'raw curr proj'!$A$1:$AF$1,0)),"-")</f>
-        <v>3.18</v>
+        <v>61.92</v>
       </c>
       <c r="D9" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>-0.82</v>
+        <v>+61.92</v>
       </c>
       <c r="E9" s="1">
         <f ca="1">OFFSET('raw curr proj'!$B$1,COUNTA('raw curr proj'!B:B)-1,MATCH(output!A9,'raw curr proj'!$C$1:$AF$1,0))</f>
@@ -1021,11 +1021,11 @@
       </c>
       <c r="C10" s="1">
         <f>IFERROR(INDEX('raw curr proj'!$A$1:$AF$367,MATCH(variables!$D$2,'raw curr proj'!$A$1:$A$367,0),MATCH($A10,'raw curr proj'!$A$1:$AF$1,0)),"-")</f>
-        <v>1.71</v>
+        <v>55.37</v>
       </c>
       <c r="D10" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>+1.71</v>
+        <v>+55.37</v>
       </c>
       <c r="E10" s="1">
         <f ca="1">OFFSET('raw curr proj'!$B$1,COUNTA('raw curr proj'!B:B)-1,MATCH(output!A10,'raw curr proj'!$C$1:$AF$1,0))</f>
@@ -1043,15 +1043,15 @@
       </c>
       <c r="B11" s="1">
         <f>IFERROR(INDEX('raw actual'!$A$1:$AF$367,MATCH(variables!$D$2,'raw actual'!$A$1:$A$367,0),MATCH($A11,'raw actual'!$A$1:$AF$1,0)),"-")</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C11" s="1">
         <f>IFERROR(INDEX('raw curr proj'!$A$1:$AF$367,MATCH(variables!$D$2,'raw curr proj'!$A$1:$A$367,0),MATCH($A11,'raw curr proj'!$A$1:$AF$1,0)),"-")</f>
-        <v>3.35</v>
+        <v>70.88</v>
       </c>
       <c r="D11" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>-0.65</v>
+        <v>+70.88</v>
       </c>
       <c r="E11" s="1">
         <f ca="1">OFFSET('raw curr proj'!$B$1,COUNTA('raw curr proj'!B:B)-1,MATCH(output!A11,'raw curr proj'!$C$1:$AF$1,0))</f>
@@ -1069,15 +1069,15 @@
       </c>
       <c r="B12" s="1">
         <f>IFERROR(INDEX('raw actual'!$A$1:$AF$367,MATCH(variables!$D$2,'raw actual'!$A$1:$A$367,0),MATCH($A12,'raw actual'!$A$1:$AF$1,0)),"-")</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C12" s="1">
         <f>IFERROR(INDEX('raw curr proj'!$A$1:$AF$367,MATCH(variables!$D$2,'raw curr proj'!$A$1:$A$367,0),MATCH($A12,'raw curr proj'!$A$1:$AF$1,0)),"-")</f>
-        <v>2.96</v>
+        <v>63.02</v>
       </c>
       <c r="D12" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>-1.04</v>
+        <v>+63.02</v>
       </c>
       <c r="E12" s="1">
         <f ca="1">OFFSET('raw curr proj'!$B$1,COUNTA('raw curr proj'!B:B)-1,MATCH(output!A12,'raw curr proj'!$C$1:$AF$1,0))</f>
@@ -1095,15 +1095,15 @@
       </c>
       <c r="B13" s="1">
         <f>IFERROR(INDEX('raw actual'!$A$1:$AF$367,MATCH(variables!$D$2,'raw actual'!$A$1:$A$367,0),MATCH($A13,'raw actual'!$A$1:$AF$1,0)),"-")</f>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C13" s="1">
         <f>IFERROR(INDEX('raw curr proj'!$A$1:$AF$367,MATCH(variables!$D$2,'raw curr proj'!$A$1:$A$367,0),MATCH($A13,'raw curr proj'!$A$1:$AF$1,0)),"-")</f>
-        <v>3.98</v>
+        <v>57.41</v>
       </c>
       <c r="D13" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>-2.02</v>
+        <v>+57.41</v>
       </c>
       <c r="E13" s="1">
         <f ca="1">OFFSET('raw curr proj'!$B$1,COUNTA('raw curr proj'!B:B)-1,MATCH(output!A13,'raw curr proj'!$C$1:$AF$1,0))</f>
@@ -1121,15 +1121,15 @@
       </c>
       <c r="B14" s="1">
         <f>IFERROR(INDEX('raw actual'!$A$1:$AF$367,MATCH(variables!$D$2,'raw actual'!$A$1:$A$367,0),MATCH($A14,'raw actual'!$A$1:$AF$1,0)),"-")</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C14" s="1">
         <f>IFERROR(INDEX('raw curr proj'!$A$1:$AF$367,MATCH(variables!$D$2,'raw curr proj'!$A$1:$A$367,0),MATCH($A14,'raw curr proj'!$A$1:$AF$1,0)),"-")</f>
-        <v>3.21</v>
+        <v>62.57</v>
       </c>
       <c r="D14" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>-1.79</v>
+        <v>+62.57</v>
       </c>
       <c r="E14" s="1">
         <f ca="1">OFFSET('raw curr proj'!$B$1,COUNTA('raw curr proj'!B:B)-1,MATCH(output!A14,'raw curr proj'!$C$1:$AF$1,0))</f>
@@ -1151,11 +1151,11 @@
       </c>
       <c r="C15" s="1">
         <f>IFERROR(INDEX('raw curr proj'!$A$1:$AF$367,MATCH(variables!$D$2,'raw curr proj'!$A$1:$A$367,0),MATCH($A15,'raw curr proj'!$A$1:$AF$1,0)),"-")</f>
-        <v>2.96</v>
+        <v>61.34</v>
       </c>
       <c r="D15" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>+2.96</v>
+        <v>+61.34</v>
       </c>
       <c r="E15" s="1">
         <f ca="1">OFFSET('raw curr proj'!$B$1,COUNTA('raw curr proj'!B:B)-1,MATCH(output!A15,'raw curr proj'!$C$1:$AF$1,0))</f>
@@ -1173,15 +1173,15 @@
       </c>
       <c r="B16" s="1">
         <f>IFERROR(INDEX('raw actual'!$A$1:$AF$367,MATCH(variables!$D$2,'raw actual'!$A$1:$A$367,0),MATCH($A16,'raw actual'!$A$1:$AF$1,0)),"-")</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C16" s="1">
         <f>IFERROR(INDEX('raw curr proj'!$A$1:$AF$367,MATCH(variables!$D$2,'raw curr proj'!$A$1:$A$367,0),MATCH($A16,'raw curr proj'!$A$1:$AF$1,0)),"-")</f>
-        <v>3.06</v>
+        <v>61.76</v>
       </c>
       <c r="D16" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>-0.94</v>
+        <v>+61.76</v>
       </c>
       <c r="E16" s="1">
         <f ca="1">OFFSET('raw curr proj'!$B$1,COUNTA('raw curr proj'!B:B)-1,MATCH(output!A16,'raw curr proj'!$C$1:$AF$1,0))</f>
@@ -1199,15 +1199,15 @@
       </c>
       <c r="B17" s="1">
         <f>IFERROR(INDEX('raw actual'!$A$1:$AF$367,MATCH(variables!$D$2,'raw actual'!$A$1:$A$367,0),MATCH($A17,'raw actual'!$A$1:$AF$1,0)),"-")</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C17" s="1">
         <f>IFERROR(INDEX('raw curr proj'!$A$1:$AF$367,MATCH(variables!$D$2,'raw curr proj'!$A$1:$A$367,0),MATCH($A17,'raw curr proj'!$A$1:$AF$1,0)),"-")</f>
-        <v>3.13</v>
+        <v>61.4</v>
       </c>
       <c r="D17" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>-1.87</v>
+        <v>+61.4</v>
       </c>
       <c r="E17" s="1">
         <f ca="1">OFFSET('raw curr proj'!$B$1,COUNTA('raw curr proj'!B:B)-1,MATCH(output!A17,'raw curr proj'!$C$1:$AF$1,0))</f>
@@ -1225,15 +1225,15 @@
       </c>
       <c r="B18" s="1">
         <f>IFERROR(INDEX('raw actual'!$A$1:$AF$367,MATCH(variables!$D$2,'raw actual'!$A$1:$A$367,0),MATCH($A18,'raw actual'!$A$1:$AF$1,0)),"-")</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C18" s="1">
         <f>IFERROR(INDEX('raw curr proj'!$A$1:$AF$367,MATCH(variables!$D$2,'raw curr proj'!$A$1:$A$367,0),MATCH($A18,'raw curr proj'!$A$1:$AF$1,0)),"-")</f>
-        <v>2.94</v>
+        <v>61.62</v>
       </c>
       <c r="D18" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>+0.94</v>
+        <v>+61.62</v>
       </c>
       <c r="E18" s="1">
         <f ca="1">OFFSET('raw curr proj'!$B$1,COUNTA('raw curr proj'!B:B)-1,MATCH(output!A18,'raw curr proj'!$C$1:$AF$1,0))</f>
@@ -1251,15 +1251,15 @@
       </c>
       <c r="B19" s="1">
         <f>IFERROR(INDEX('raw actual'!$A$1:$AF$367,MATCH(variables!$D$2,'raw actual'!$A$1:$A$367,0),MATCH($A19,'raw actual'!$A$1:$AF$1,0)),"-")</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C19" s="1">
         <f>IFERROR(INDEX('raw curr proj'!$A$1:$AF$367,MATCH(variables!$D$2,'raw curr proj'!$A$1:$A$367,0),MATCH($A19,'raw curr proj'!$A$1:$AF$1,0)),"-")</f>
-        <v>2.8</v>
+        <v>58.63</v>
       </c>
       <c r="D19" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>-0.2</v>
+        <v>+58.63</v>
       </c>
       <c r="E19" s="1">
         <f ca="1">OFFSET('raw curr proj'!$B$1,COUNTA('raw curr proj'!B:B)-1,MATCH(output!A19,'raw curr proj'!$C$1:$AF$1,0))</f>
@@ -1277,15 +1277,15 @@
       </c>
       <c r="B20" s="1">
         <f>IFERROR(INDEX('raw actual'!$A$1:$AF$367,MATCH(variables!$D$2,'raw actual'!$A$1:$A$367,0),MATCH($A20,'raw actual'!$A$1:$AF$1,0)),"-")</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C20" s="1">
         <f>IFERROR(INDEX('raw curr proj'!$A$1:$AF$367,MATCH(variables!$D$2,'raw curr proj'!$A$1:$A$367,0),MATCH($A20,'raw curr proj'!$A$1:$AF$1,0)),"-")</f>
-        <v>3.92</v>
+        <v>60.89</v>
       </c>
       <c r="D20" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>+1.92</v>
+        <v>+60.89</v>
       </c>
       <c r="E20" s="1">
         <f ca="1">OFFSET('raw curr proj'!$B$1,COUNTA('raw curr proj'!B:B)-1,MATCH(output!A20,'raw curr proj'!$C$1:$AF$1,0))</f>
@@ -1303,15 +1303,15 @@
       </c>
       <c r="B21" s="1">
         <f>IFERROR(INDEX('raw actual'!$A$1:$AF$367,MATCH(variables!$D$2,'raw actual'!$A$1:$A$367,0),MATCH($A21,'raw actual'!$A$1:$AF$1,0)),"-")</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C21" s="1">
         <f>IFERROR(INDEX('raw curr proj'!$A$1:$AF$367,MATCH(variables!$D$2,'raw curr proj'!$A$1:$A$367,0),MATCH($A21,'raw curr proj'!$A$1:$AF$1,0)),"-")</f>
-        <v>3.43</v>
+        <v>66.7</v>
       </c>
       <c r="D21" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>-0.57</v>
+        <v>+66.7</v>
       </c>
       <c r="E21" s="1">
         <f ca="1">OFFSET('raw curr proj'!$B$1,COUNTA('raw curr proj'!B:B)-1,MATCH(output!A21,'raw curr proj'!$C$1:$AF$1,0))</f>
@@ -1329,15 +1329,15 @@
       </c>
       <c r="B22" s="1">
         <f>IFERROR(INDEX('raw actual'!$A$1:$AF$367,MATCH(variables!$D$2,'raw actual'!$A$1:$A$367,0),MATCH($A22,'raw actual'!$A$1:$AF$1,0)),"-")</f>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C22" s="1">
         <f>IFERROR(INDEX('raw curr proj'!$A$1:$AF$367,MATCH(variables!$D$2,'raw curr proj'!$A$1:$A$367,0),MATCH($A22,'raw curr proj'!$A$1:$AF$1,0)),"-")</f>
-        <v>4.37</v>
+        <v>63.81</v>
       </c>
       <c r="D22" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>-1.63</v>
+        <v>+63.81</v>
       </c>
       <c r="E22" s="1">
         <f ca="1">OFFSET('raw curr proj'!$B$1,COUNTA('raw curr proj'!B:B)-1,MATCH(output!A22,'raw curr proj'!$C$1:$AF$1,0))</f>
@@ -1355,15 +1355,15 @@
       </c>
       <c r="B23" s="1">
         <f>IFERROR(INDEX('raw actual'!$A$1:$AF$367,MATCH(variables!$D$2,'raw actual'!$A$1:$A$367,0),MATCH($A23,'raw actual'!$A$1:$AF$1,0)),"-")</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C23" s="1">
         <f>IFERROR(INDEX('raw curr proj'!$A$1:$AF$367,MATCH(variables!$D$2,'raw curr proj'!$A$1:$A$367,0),MATCH($A23,'raw curr proj'!$A$1:$AF$1,0)),"-")</f>
-        <v>3.66</v>
+        <v>63.61</v>
       </c>
       <c r="D23" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>+0.66</v>
+        <v>+63.61</v>
       </c>
       <c r="E23" s="1">
         <f ca="1">OFFSET('raw curr proj'!$B$1,COUNTA('raw curr proj'!B:B)-1,MATCH(output!A23,'raw curr proj'!$C$1:$AF$1,0))</f>
@@ -1381,15 +1381,15 @@
       </c>
       <c r="B24" s="1">
         <f>IFERROR(INDEX('raw actual'!$A$1:$AF$367,MATCH(variables!$D$2,'raw actual'!$A$1:$A$367,0),MATCH($A24,'raw actual'!$A$1:$AF$1,0)),"-")</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C24" s="1">
         <f>IFERROR(INDEX('raw curr proj'!$A$1:$AF$367,MATCH(variables!$D$2,'raw curr proj'!$A$1:$A$367,0),MATCH($A24,'raw curr proj'!$A$1:$AF$1,0)),"-")</f>
-        <v>4.68</v>
+        <v>67.400000000000006</v>
       </c>
       <c r="D24" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>-0.32</v>
+        <v>+67.4</v>
       </c>
       <c r="E24" s="1">
         <f ca="1">OFFSET('raw curr proj'!$B$1,COUNTA('raw curr proj'!B:B)-1,MATCH(output!A24,'raw curr proj'!$C$1:$AF$1,0))</f>
@@ -1407,15 +1407,15 @@
       </c>
       <c r="B25" s="1">
         <f>IFERROR(INDEX('raw actual'!$A$1:$AF$367,MATCH(variables!$D$2,'raw actual'!$A$1:$A$367,0),MATCH($A25,'raw actual'!$A$1:$AF$1,0)),"-")</f>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C25" s="1">
         <f>IFERROR(INDEX('raw curr proj'!$A$1:$AF$367,MATCH(variables!$D$2,'raw curr proj'!$A$1:$A$367,0),MATCH($A25,'raw curr proj'!$A$1:$AF$1,0)),"-")</f>
-        <v>4.4000000000000004</v>
+        <v>68.150000000000006</v>
       </c>
       <c r="D25" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>-1.6</v>
+        <v>+68.15</v>
       </c>
       <c r="E25" s="1">
         <f ca="1">OFFSET('raw curr proj'!$B$1,COUNTA('raw curr proj'!B:B)-1,MATCH(output!A25,'raw curr proj'!$C$1:$AF$1,0))</f>
@@ -1433,15 +1433,15 @@
       </c>
       <c r="B26" s="1">
         <f>IFERROR(INDEX('raw actual'!$A$1:$AF$367,MATCH(variables!$D$2,'raw actual'!$A$1:$A$367,0),MATCH($A26,'raw actual'!$A$1:$AF$1,0)),"-")</f>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C26" s="1">
         <f>IFERROR(INDEX('raw curr proj'!$A$1:$AF$367,MATCH(variables!$D$2,'raw curr proj'!$A$1:$A$367,0),MATCH($A26,'raw curr proj'!$A$1:$AF$1,0)),"-")</f>
-        <v>4.78</v>
+        <v>67.459999999999994</v>
       </c>
       <c r="D26" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>-2.22</v>
+        <v>+67.46</v>
       </c>
       <c r="E26" s="1">
         <f ca="1">OFFSET('raw curr proj'!$B$1,COUNTA('raw curr proj'!B:B)-1,MATCH(output!A26,'raw curr proj'!$C$1:$AF$1,0))</f>
@@ -1459,15 +1459,15 @@
       </c>
       <c r="B27" s="1">
         <f>IFERROR(INDEX('raw actual'!$A$1:$AF$367,MATCH(variables!$D$2,'raw actual'!$A$1:$A$367,0),MATCH($A27,'raw actual'!$A$1:$AF$1,0)),"-")</f>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C27" s="1">
         <f>IFERROR(INDEX('raw curr proj'!$A$1:$AF$367,MATCH(variables!$D$2,'raw curr proj'!$A$1:$A$367,0),MATCH($A27,'raw curr proj'!$A$1:$AF$1,0)),"-")</f>
-        <v>3.54</v>
+        <v>65.959999999999994</v>
       </c>
       <c r="D27" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>-2.46</v>
+        <v>+65.96</v>
       </c>
       <c r="E27" s="1">
         <f ca="1">OFFSET('raw curr proj'!$B$1,COUNTA('raw curr proj'!B:B)-1,MATCH(output!A27,'raw curr proj'!$C$1:$AF$1,0))</f>
@@ -1485,15 +1485,15 @@
       </c>
       <c r="B28" s="1">
         <f>IFERROR(INDEX('raw actual'!$A$1:$AF$367,MATCH(variables!$D$2,'raw actual'!$A$1:$A$367,0),MATCH($A28,'raw actual'!$A$1:$AF$1,0)),"-")</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C28" s="1">
         <f>IFERROR(INDEX('raw curr proj'!$A$1:$AF$367,MATCH(variables!$D$2,'raw curr proj'!$A$1:$A$367,0),MATCH($A28,'raw curr proj'!$A$1:$AF$1,0)),"-")</f>
-        <v>1.89</v>
+        <v>57.78</v>
       </c>
       <c r="D28" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>-2.11</v>
+        <v>+57.78</v>
       </c>
       <c r="E28" s="1">
         <f ca="1">OFFSET('raw curr proj'!$B$1,COUNTA('raw curr proj'!B:B)-1,MATCH(output!A28,'raw curr proj'!$C$1:$AF$1,0))</f>
@@ -1511,15 +1511,15 @@
       </c>
       <c r="B29" s="1">
         <f>IFERROR(INDEX('raw actual'!$A$1:$AF$367,MATCH(variables!$D$2,'raw actual'!$A$1:$A$367,0),MATCH($A29,'raw actual'!$A$1:$AF$1,0)),"-")</f>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C29" s="1">
         <f>IFERROR(INDEX('raw curr proj'!$A$1:$AF$367,MATCH(variables!$D$2,'raw curr proj'!$A$1:$A$367,0),MATCH($A29,'raw curr proj'!$A$1:$AF$1,0)),"-")</f>
-        <v>2.82</v>
+        <v>55.37</v>
       </c>
       <c r="D29" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>-3.18</v>
+        <v>+55.37</v>
       </c>
       <c r="E29" s="1">
         <f ca="1">OFFSET('raw curr proj'!$B$1,COUNTA('raw curr proj'!B:B)-1,MATCH(output!A29,'raw curr proj'!$C$1:$AF$1,0))</f>
@@ -1537,15 +1537,15 @@
       </c>
       <c r="B30" s="1">
         <f>IFERROR(INDEX('raw actual'!$A$1:$AF$367,MATCH(variables!$D$2,'raw actual'!$A$1:$A$367,0),MATCH($A30,'raw actual'!$A$1:$AF$1,0)),"-")</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C30" s="1">
         <f>IFERROR(INDEX('raw curr proj'!$A$1:$AF$367,MATCH(variables!$D$2,'raw curr proj'!$A$1:$A$367,0),MATCH($A30,'raw curr proj'!$A$1:$AF$1,0)),"-")</f>
-        <v>3</v>
+        <v>63.4</v>
       </c>
       <c r="D30" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>-2</v>
+        <v>+63.4</v>
       </c>
       <c r="E30" s="1">
         <f ca="1">OFFSET('raw curr proj'!$B$1,COUNTA('raw curr proj'!B:B)-1,MATCH(output!A30,'raw curr proj'!$C$1:$AF$1,0))</f>
@@ -1563,15 +1563,15 @@
       </c>
       <c r="B31" s="1">
         <f>IFERROR(INDEX('raw actual'!$A$1:$AF$367,MATCH(variables!$D$2,'raw actual'!$A$1:$A$367,0),MATCH($A31,'raw actual'!$A$1:$AF$1,0)),"-")</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C31" s="1">
         <f>IFERROR(INDEX('raw curr proj'!$A$1:$AF$367,MATCH(variables!$D$2,'raw curr proj'!$A$1:$A$367,0),MATCH($A31,'raw curr proj'!$A$1:$AF$1,0)),"-")</f>
-        <v>3.24</v>
+        <v>62.66</v>
       </c>
       <c r="D31" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>-0.76</v>
+        <v>+62.66</v>
       </c>
       <c r="E31" s="1">
         <f ca="1">OFFSET('raw curr proj'!$B$1,COUNTA('raw curr proj'!B:B)-1,MATCH(output!A31,'raw curr proj'!$C$1:$AF$1,0))</f>
@@ -1595,7 +1595,7 @@
   <dimension ref="A1:AE367"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B191" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B343" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="AF202" sqref="AF202"/>
